--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H2">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.687688666666667</v>
+        <v>0.016376</v>
       </c>
       <c r="N2">
-        <v>14.063066</v>
+        <v>0.049128</v>
       </c>
       <c r="O2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q2">
-        <v>3.51725874755889</v>
+        <v>0.004256515423999999</v>
       </c>
       <c r="R2">
-        <v>31.65532872803001</v>
+        <v>0.038308638816</v>
       </c>
       <c r="S2">
-        <v>0.001858527657335818</v>
+        <v>0.0003192561380497537</v>
       </c>
       <c r="T2">
-        <v>0.001858527657335818</v>
+        <v>0.0003192561380497537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H3">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I3">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J3">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016376</v>
+        <v>0.016924</v>
       </c>
       <c r="N3">
-        <v>0.049128</v>
+        <v>0.050772</v>
       </c>
       <c r="O3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P3">
-        <v>0.003468764946551449</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q3">
-        <v>0.01228721302666667</v>
+        <v>0.004398953775999999</v>
       </c>
       <c r="R3">
-        <v>0.11058491724</v>
+        <v>0.039590583984</v>
       </c>
       <c r="S3">
-        <v>6.492591782588095E-06</v>
+        <v>0.0003299395994353952</v>
       </c>
       <c r="T3">
-        <v>6.492591782588095E-06</v>
+        <v>0.0003299395994353951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7503183333333334</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H4">
-        <v>2.250955</v>
+        <v>1149.392303</v>
       </c>
       <c r="I4">
-        <v>0.001871730106429625</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J4">
-        <v>0.001871730106429625</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016924</v>
+        <v>0.016376</v>
       </c>
       <c r="N4">
-        <v>0.050772</v>
+        <v>0.049128</v>
       </c>
       <c r="O4">
-        <v>0.003584842327518119</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P4">
-        <v>0.00358484232751812</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q4">
-        <v>0.01269838747333334</v>
+        <v>6.274149451309333</v>
       </c>
       <c r="R4">
-        <v>0.11428548726</v>
+        <v>56.467345061784</v>
       </c>
       <c r="S4">
-        <v>6.709857311218915E-06</v>
+        <v>0.4705869763980912</v>
       </c>
       <c r="T4">
-        <v>6.709857311218915E-06</v>
+        <v>0.4705869763980911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H5">
         <v>1149.392303</v>
       </c>
       <c r="I5">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J5">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.687688666666667</v>
+        <v>0.016924</v>
       </c>
       <c r="N5">
-        <v>14.063066</v>
+        <v>0.050772</v>
       </c>
       <c r="O5">
-        <v>0.9929463927259303</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P5">
-        <v>0.9929463927259304</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q5">
-        <v>1795.997757442333</v>
+        <v>6.484105111990667</v>
       </c>
       <c r="R5">
-        <v>16163.979816981</v>
+        <v>58.356946007916</v>
       </c>
       <c r="S5">
-        <v>0.9490093690253293</v>
+        <v>0.4863345132243097</v>
       </c>
       <c r="T5">
-        <v>0.9490093690253292</v>
+        <v>0.4863345132243095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>383.1307676666666</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H6">
-        <v>1149.392303</v>
+        <v>50.963353</v>
       </c>
       <c r="I6">
-        <v>0.9557508602453543</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J6">
-        <v>0.9557508602453541</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.049128</v>
       </c>
       <c r="O6">
-        <v>0.003468764946551448</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P6">
-        <v>0.003468764946551449</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q6">
-        <v>6.274149451309332</v>
+        <v>0.2781919562426666</v>
       </c>
       <c r="R6">
-        <v>56.46734506178399</v>
+        <v>2.503727606184</v>
       </c>
       <c r="S6">
-        <v>0.003315275081655477</v>
+        <v>0.02086553923563084</v>
       </c>
       <c r="T6">
-        <v>0.003315275081655477</v>
+        <v>0.02086553923563083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>383.1307676666666</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H7">
-        <v>1149.392303</v>
+        <v>50.963353</v>
       </c>
       <c r="I7">
-        <v>0.9557508602453543</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J7">
-        <v>0.9557508602453541</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.050772</v>
       </c>
       <c r="O7">
-        <v>0.003584842327518119</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P7">
-        <v>0.00358484232751812</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q7">
-        <v>6.484105111990666</v>
+        <v>0.2875012620573333</v>
       </c>
       <c r="R7">
-        <v>58.356946007916</v>
+        <v>2.587511358516</v>
       </c>
       <c r="S7">
-        <v>0.003426216138369401</v>
+        <v>0.02156377540448316</v>
       </c>
       <c r="T7">
-        <v>0.003426216138369401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>16.98778433333334</v>
-      </c>
-      <c r="H8">
-        <v>50.96335300000001</v>
-      </c>
-      <c r="I8">
-        <v>0.04237740964821623</v>
-      </c>
-      <c r="J8">
-        <v>0.04237740964821622</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>4.687688666666667</v>
-      </c>
-      <c r="N8">
-        <v>14.063066</v>
-      </c>
-      <c r="O8">
-        <v>0.9929463927259303</v>
-      </c>
-      <c r="P8">
-        <v>0.9929463927259304</v>
-      </c>
-      <c r="Q8">
-        <v>79.63344409114426</v>
-      </c>
-      <c r="R8">
-        <v>716.7009968202982</v>
-      </c>
-      <c r="S8">
-        <v>0.04207849604326534</v>
-      </c>
-      <c r="T8">
-        <v>0.04207849604326534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.98778433333334</v>
-      </c>
-      <c r="H9">
-        <v>50.96335300000001</v>
-      </c>
-      <c r="I9">
-        <v>0.04237740964821623</v>
-      </c>
-      <c r="J9">
-        <v>0.04237740964821622</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.016376</v>
-      </c>
-      <c r="N9">
-        <v>0.049128</v>
-      </c>
-      <c r="O9">
-        <v>0.003468764946551448</v>
-      </c>
-      <c r="P9">
-        <v>0.003468764946551449</v>
-      </c>
-      <c r="Q9">
-        <v>0.2781919562426667</v>
-      </c>
-      <c r="R9">
-        <v>2.503727606184</v>
-      </c>
-      <c r="S9">
-        <v>0.0001469972731133836</v>
-      </c>
-      <c r="T9">
-        <v>0.0001469972731133836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16.98778433333334</v>
-      </c>
-      <c r="H10">
-        <v>50.96335300000001</v>
-      </c>
-      <c r="I10">
-        <v>0.04237740964821623</v>
-      </c>
-      <c r="J10">
-        <v>0.04237740964821622</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.016924</v>
-      </c>
-      <c r="N10">
-        <v>0.050772</v>
-      </c>
-      <c r="O10">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="P10">
-        <v>0.00358484232751812</v>
-      </c>
-      <c r="Q10">
-        <v>0.2875012620573335</v>
-      </c>
-      <c r="R10">
-        <v>2.587511358516001</v>
-      </c>
-      <c r="S10">
-        <v>0.0001519163318375003</v>
-      </c>
-      <c r="T10">
-        <v>0.0001519163318375003</v>
+        <v>0.02156377540448316</v>
       </c>
     </row>
   </sheetData>
